--- a/Product_Backlog/Product Backlog.xlsx
+++ b/Product_Backlog/Product Backlog.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22604"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_d00\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dmail-my.sharepoint.com/personal/sahartley_dundee_ac_uk/Documents/Third year/Agile/Team14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E039FC84-5FF7-47F4-A949-D96B46C1E7B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FD048D8-8094-4AC8-8F5B-51980BAD50AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Product Backlog" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Product Backlog'!$B$2:$K$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Product Backlog'!$B$2:$J$7</definedName>
     <definedName name="Priority">'Agile Product Backlog'!#REF!</definedName>
     <definedName name="Status">'Agile Product Backlog'!#REF!</definedName>
     <definedName name="YesNo">'Agile Product Backlog'!#REF!</definedName>
@@ -39,13 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
-  <si>
-    <t>AGILE PRODUCT BACKLOG</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>USER STORY</t>
   </si>
@@ -74,13 +68,58 @@
     <t>RETURN ON INVESTMENT</t>
   </si>
   <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>As a developer I want to learn about Spring Framework for Java, in order to see if it is worth using.</t>
+  </si>
+  <si>
+    <t>Yousaf</t>
+  </si>
+  <si>
+    <t>27/01/2020</t>
+  </si>
+  <si>
+    <t>28/01/2020</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>As a developer I want to learn how to use java with an SQL database, so that we can pull data from the database efficiently.</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>29/01/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>As a developer, I want to learn how to host a java web app on microsoft azure and leverage the robustness of azure hosting to provide reliable service to the user.</t>
+  </si>
+  <si>
+    <t>Oskar</t>
+  </si>
+  <si>
+    <t>As a developer, I want to learn about Google Maps API, so that we can utilise it and deliver a better quality service.</t>
+  </si>
+  <si>
+    <t>Blazej</t>
+  </si>
+  <si>
+    <t>As a developer, I want to learn how to host an SQL database on an Azure service to provide a way for developers to access data.</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a user, I want to search by price, to find affordable cost for a procedure. </t>
   </si>
   <si>
     <t>Gregor</t>
   </si>
   <si>
-    <t>27/01/2020</t>
+    <t>Moved to sprint 2</t>
   </si>
   <si>
     <t>In Progress</t>
@@ -89,83 +128,44 @@
     <t>As a user, I want to search by location, to help me locate nearby instutions for my treatment.</t>
   </si>
   <si>
-    <t>Blazej</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">As a user, I want to be able to search for a procedure by its  description so that I can be treated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to be able to search for a procedure by its code so that I can be treated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to order by price, to find the most affordable care in my area.  </t>
+  </si>
+  <si>
+    <t>As a user, I want to order the search results by distance to help me identify the nearest institution for treatment.</t>
+  </si>
+  <si>
+    <t>As a user, I want to view the search results as a list, so I can compare my options</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to see the price information for each result on the map, to help me make a decision</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
   </si>
   <si>
     <t xml:space="preserve">As a user, I want to use my current location, to help me locate the nearest institution. </t>
   </si>
   <si>
-    <t xml:space="preserve">As a user, I want to be able to search for a procedure by its  description so that I can be treated. </t>
-  </si>
-  <si>
-    <t>Roman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user, I want to be able to search for a procedure by its code so that I can be treated. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user, I want to order by price, to find the most affordable care in my area.  </t>
-  </si>
-  <si>
-    <t>Oskar</t>
-  </si>
-  <si>
-    <t>As a user, I want to order the search results by distance to help me identify the nearest institution for treatment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user, I want to filter my search based on price, distance and user feedback, to find my optimal care. </t>
-  </si>
-  <si>
-    <t>Yousaf</t>
-  </si>
-  <si>
-    <t>Not Started</t>
+    <t xml:space="preserve">As a user, I want to filter my search based on price and distance, to find my optimal care. </t>
   </si>
   <si>
     <t xml:space="preserve">As a user I want to view the search results on a map, so that I can make a choice based on their location. </t>
-  </si>
-  <si>
-    <t>As a user, I want to view the search results as a list, so I can compare my options</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to see the price information for each result on the map, to help me make a decision</t>
-  </si>
-  <si>
-    <t>As a developer I want to learn about Spring Framework for Java, in order to see if it is worth using.</t>
-  </si>
-  <si>
-    <t>28/01/2020</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>As a developer I want to learn how to use java with an SQL database, so that we can pull data from the database efficiently.</t>
-  </si>
-  <si>
-    <t>29/01/2020</t>
-  </si>
-  <si>
-    <t>As a developer, I want to learn how to host a java web app on microsoft azure and leverage the robustness of azure hosting to provide reliable service to the user.</t>
-  </si>
-  <si>
-    <t>SPIKE: As a developer, I want to learn about Google Maps API, so that we can utilise it and deliver a better quality service.</t>
-  </si>
-  <si>
-    <t>As a developer, I want to learn how to host an SQL database on an Azure service to provide a way for developers to access data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,6 +199,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -255,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -280,6 +287,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -625,32 +644,30 @@
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Z49"/>
+  <dimension ref="B1:Y46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="12.6"/>
   <cols>
     <col min="1" max="1" width="3.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="3" customWidth="1"/>
-    <col min="6" max="7" width="10.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="10.75" style="3"/>
+    <col min="2" max="2" width="53.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="10.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="49.9" customHeight="1">
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:25" ht="33.75" customHeight="1">
+      <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -659,7 +676,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -674,39 +691,36 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="2:26" ht="34.9" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="2:25" ht="34.9" customHeight="1">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -721,19 +735,20 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="2:26" ht="50.25" customHeight="1">
-      <c r="B3" s="4"/>
+    </row>
+    <row r="3" spans="2:25" ht="29.25" customHeight="1">
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -748,37 +763,36 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="2:26" ht="50.25" customHeight="1">
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="4" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6">
-        <v>8</v>
-      </c>
-      <c r="I4" s="6">
-        <v>4</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="G4" s="10">
+        <v>5</v>
+      </c>
+      <c r="H4" s="10">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="6">
-        <v>2</v>
-      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -793,42 +807,41 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="2:26" ht="50.25" customHeight="1">
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    </row>
+    <row r="5" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6">
+        <v>17</v>
+      </c>
+      <c r="G5" s="10">
         <v>8</v>
       </c>
-      <c r="I5" s="6">
-        <v>7</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="H5" s="10">
+        <v>8</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="M5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -840,34 +853,34 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="2:26" ht="50.25" customHeight="1">
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6">
-        <v>4</v>
-      </c>
-      <c r="I6" s="6">
+    </row>
+    <row r="6" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7">
+        <v>43847</v>
+      </c>
+      <c r="G6" s="10">
         <v>8</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="H6" s="10">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="6">
-        <v>0.5</v>
+      <c r="J6" s="6">
+        <v>1</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -883,37 +896,37 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="2:26" ht="50.25" customHeight="1">
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
+    </row>
+    <row r="7" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10">
         <v>7</v>
       </c>
-      <c r="I7" s="6">
+      <c r="H7" s="10">
         <v>7</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -927,38 +940,39 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="2:26" ht="50.25" customHeight="1">
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
+    </row>
+    <row r="8" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6">
-        <v>5</v>
-      </c>
-      <c r="I8" s="6">
-        <v>3</v>
-      </c>
-      <c r="J8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="10">
+        <v>8</v>
+      </c>
+      <c r="H8" s="10">
+        <v>8</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="L8" s="2"/>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -972,41 +986,38 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="2:26" ht="50.25" customHeight="1">
-      <c r="B9" s="6">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
+    </row>
+    <row r="9" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6">
-        <v>7</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="6">
-        <v>7</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G9" s="10">
+        <v>8</v>
+      </c>
+      <c r="H9" s="10">
+        <v>4</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1019,37 +1030,36 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="2:26" ht="50.25" customHeight="1">
-      <c r="B10" s="6">
+    </row>
+    <row r="10" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="10">
+        <v>8</v>
+      </c>
+      <c r="H10" s="10">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6">
-        <v>7</v>
-      </c>
-      <c r="I10" s="6">
-        <v>7</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
+      <c r="I10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1064,35 +1074,36 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="2:26" ht="50.25" customHeight="1">
-      <c r="B11" s="6">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6" t="s">
+    </row>
+    <row r="11" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6">
-        <v>4</v>
-      </c>
-      <c r="I11" s="6">
-        <v>10</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="G11" s="10">
+        <v>7</v>
+      </c>
+      <c r="H11" s="10">
+        <v>7</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="6">
-        <v>0.5</v>
-      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1107,35 +1118,36 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="2:26" ht="50.25" customHeight="1">
-      <c r="B12" s="6">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6" t="s">
+    </row>
+    <row r="12" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6">
-        <v>4</v>
-      </c>
-      <c r="I12" s="6">
-        <v>8</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="10">
+        <v>5</v>
+      </c>
+      <c r="H12" s="10">
+        <v>3</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="6">
-        <v>0.5</v>
-      </c>
+      <c r="J12" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1150,37 +1162,36 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="2:26" ht="50.25" customHeight="1">
-      <c r="B13" s="6">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>30</v>
+    </row>
+    <row r="13" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6">
-        <v>8</v>
-      </c>
-      <c r="I13" s="6">
-        <v>2</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="6">
-        <v>4</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G13" s="10">
+        <v>7</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="6">
+        <v>7</v>
+      </c>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1195,37 +1206,36 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="2:26" ht="50.25" customHeight="1">
-      <c r="B14" s="6">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>30</v>
+    </row>
+    <row r="14" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6">
-        <v>3</v>
-      </c>
-      <c r="I14" s="6">
-        <v>8</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0.5</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G14" s="10">
+        <v>7</v>
+      </c>
+      <c r="H14" s="10">
+        <v>7</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1240,39 +1250,36 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="2:26" ht="50.25" customHeight="1">
-      <c r="B15" s="6">
+    </row>
+    <row r="15" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="6">
-        <v>5</v>
-      </c>
-      <c r="I15" s="6">
-        <v>5</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="6">
-        <v>1</v>
-      </c>
+      <c r="G15" s="10">
+        <v>8</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="6">
+        <v>4</v>
+      </c>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1287,39 +1294,36 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="2:26" ht="50.25" customHeight="1">
-      <c r="B16" s="6">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6" t="s">
+    </row>
+    <row r="16" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>20</v>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="6">
+        <v>26</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3</v>
+      </c>
+      <c r="H16" s="10">
         <v>8</v>
       </c>
-      <c r="I16" s="6">
-        <v>8</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
+      <c r="I16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1334,37 +1338,20 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="2:26" ht="50.25" customHeight="1">
-      <c r="B17" s="6">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6">
-        <v>8</v>
-      </c>
-      <c r="I17" s="6">
-        <v>8</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="6">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="17" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1379,39 +1366,34 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="2:26" ht="50.25" customHeight="1">
-      <c r="B18" s="6">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="6">
-        <v>7</v>
-      </c>
-      <c r="I18" s="6">
-        <v>7</v>
-      </c>
-      <c r="J18" s="6" t="s">
+    </row>
+    <row r="18" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="6">
-        <v>1</v>
-      </c>
+      <c r="E18" s="7">
+        <v>43833</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="10">
+        <v>8</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="6">
+        <v>4</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1426,39 +1408,34 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="2:26" ht="34.9" customHeight="1">
-      <c r="B19" s="6">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="6">
-        <v>8</v>
-      </c>
-      <c r="I19" s="6">
-        <v>8</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="6">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="19" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="7">
+        <v>43833</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="10">
+        <v>4</v>
+      </c>
+      <c r="H19" s="10">
+        <v>5</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1473,17 +1450,33 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="2:26" ht="10.15" customHeight="1">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+    </row>
+    <row r="20" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="7">
+        <v>43833</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="10">
+        <v>8</v>
+      </c>
+      <c r="H20" s="10">
+        <v>4</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1499,17 +1492,33 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="2:26" ht="12.75">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+    </row>
+    <row r="21" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="7">
+        <v>43833</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="10">
+        <v>5</v>
+      </c>
+      <c r="H21" s="10">
+        <v>4</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1.5</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1525,17 +1534,33 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="2:26" ht="12.75">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+    </row>
+    <row r="22" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="7">
+        <v>43833</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="10">
+        <v>7</v>
+      </c>
+      <c r="H22" s="10">
+        <v>4</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="6">
+        <v>2</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1551,17 +1576,33 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="2:26" ht="12.75">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+    </row>
+    <row r="23" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="7">
+        <v>43833</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="10">
+        <v>8</v>
+      </c>
+      <c r="H23" s="10">
+        <v>6</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1.5</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1577,17 +1618,33 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="2:26" ht="12.75">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+    </row>
+    <row r="24" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="7">
+        <v>43833</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="10">
+        <v>4</v>
+      </c>
+      <c r="H24" s="10">
+        <v>6</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.5</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1603,17 +1660,33 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-    </row>
-    <row r="25" spans="2:26" ht="12.75">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+    </row>
+    <row r="25" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="7">
+        <v>43833</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="10">
+        <v>7</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="6">
+        <v>7</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1629,17 +1702,33 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="2:26" ht="12.75">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+    </row>
+    <row r="26" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="7">
+        <v>43833</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="10">
+        <v>7</v>
+      </c>
+      <c r="H26" s="10">
+        <v>4</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="6">
+        <v>2</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1655,17 +1744,33 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-    </row>
-    <row r="27" spans="2:26" ht="12.75">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+    </row>
+    <row r="27" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="7">
+        <v>43833</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="10">
+        <v>4</v>
+      </c>
+      <c r="H27" s="10">
+        <v>5</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.5</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1681,17 +1786,33 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-    </row>
-    <row r="28" spans="2:26" ht="12.75">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+    </row>
+    <row r="28" spans="2:25" ht="39.950000000000003" customHeight="1">
+      <c r="B28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="7">
+        <v>43833</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="10">
+        <v>3</v>
+      </c>
+      <c r="H28" s="10">
+        <v>6</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.5</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1707,87 +1828,12 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-    </row>
-    <row r="29" spans="2:26" ht="12.75">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-    </row>
-    <row r="30" spans="2:26" ht="12.75">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-    </row>
-    <row r="31" spans="2:26" ht="12.75">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-    </row>
-    <row r="32" spans="2:26" ht="12.75">
+    </row>
+    <row r="29" spans="2:25" ht="13.5"/>
+    <row r="30" spans="2:25" ht="13.5"/>
+    <row r="31" spans="2:25" ht="13.5"/>
+    <row r="32" spans="2:25" ht="13.5">
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1811,35 +1857,10 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-    </row>
-    <row r="33" spans="3:26" ht="12.75">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-    </row>
-    <row r="34" spans="3:26" ht="12.75">
+    </row>
+    <row r="33" spans="2:25" ht="13.5"/>
+    <row r="34" spans="2:25" ht="13.5">
+      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1863,9 +1884,9 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-    </row>
-    <row r="35" spans="3:26" ht="12.75">
+    </row>
+    <row r="35" spans="2:25" ht="13.5">
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1889,9 +1910,9 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-    </row>
-    <row r="36" spans="3:26" ht="12.75">
+    </row>
+    <row r="36" spans="2:25" ht="13.5">
+      <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1915,9 +1936,9 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-    </row>
-    <row r="37" spans="3:26" ht="12.75">
+    </row>
+    <row r="37" spans="2:25" ht="13.5">
+      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1941,9 +1962,9 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-    </row>
-    <row r="38" spans="3:26" ht="12.75">
+    </row>
+    <row r="38" spans="2:25" ht="13.5">
+      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1967,9 +1988,9 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-    </row>
-    <row r="39" spans="3:26" ht="12.75">
+    </row>
+    <row r="39" spans="2:25" ht="13.5">
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1993,9 +2014,9 @@
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-    </row>
-    <row r="40" spans="3:26" ht="12.75">
+    </row>
+    <row r="40" spans="2:25">
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2019,9 +2040,9 @@
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-    </row>
-    <row r="41" spans="3:26" ht="12.75">
+    </row>
+    <row r="41" spans="2:25">
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2045,9 +2066,9 @@
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-    </row>
-    <row r="42" spans="3:26" ht="12.75">
+    </row>
+    <row r="42" spans="2:25">
+      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2071,9 +2092,9 @@
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-    </row>
-    <row r="43" spans="3:26" ht="12.75">
+    </row>
+    <row r="43" spans="2:25">
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2097,9 +2118,9 @@
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-    </row>
-    <row r="44" spans="3:26" ht="12.75">
+    </row>
+    <row r="44" spans="2:25">
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2123,9 +2144,9 @@
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-    </row>
-    <row r="45" spans="3:26" ht="12.75">
+    </row>
+    <row r="45" spans="2:25">
+      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2149,9 +2170,9 @@
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-    </row>
-    <row r="46" spans="3:26" ht="12.75">
+    </row>
+    <row r="46" spans="2:25">
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2175,55 +2196,26 @@
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-    </row>
-    <row r="47" spans="3:26" ht="12.75">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-    </row>
-    <row r="48" spans="3:26" ht="12.75"/>
-    <row r="49" ht="12.75"/>
+    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I19 K3:K19" xr:uid="{09852914-F7DA-4B15-9E6D-D14755ECEDC4}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H19" xr:uid="{0DD51206-634B-4B3E-92B8-20C3A44ED692}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C16 C27 C28 C18:C25 C26" xr:uid="{402A03B9-2466-4253-B41A-246C3120552D}">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J27 H27 J28 H28 H3:H25 H26 J3:J25 J26" xr:uid="{09852914-F7DA-4B15-9E6D-D14755ECEDC4}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G27 G28 G3:G25 G26" xr:uid="{0DD51206-634B-4B3E-92B8-20C3A44ED692}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E19" xr:uid="{E9D868ED-FB63-4E0C-A049-DDE0867271FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27 D28 D3:D25 D26" xr:uid="{E9D868ED-FB63-4E0C-A049-DDE0867271FF}">
       <formula1>"Oskar, Yousaf, Sarah, Gregor, Blazej, Roman"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D19" xr:uid="{402A03B9-2466-4253-B41A-246C3120552D}">
-      <formula1>"1,2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19" xr:uid="{F2CE05C7-0F05-4128-9E88-4C8B5566E9EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I27 I28 I2:I25 I26" xr:uid="{F2CE05C7-0F05-4128-9E88-4C8B5566E9EE}">
       <formula1>"Not Started, In Progress, Complete"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup scale="58" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Product_Backlog/Product Backlog.xlsx
+++ b/Product_Backlog/Product Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22604"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dmail-my.sharepoint.com/personal/sahartley_dundee_ac_uk/Documents/Third year/Agile/Team14/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\OneDrive\Documents\University\Third Year\Agile\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FD048D8-8094-4AC8-8F5B-51980BAD50AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{1FD048D8-8094-4AC8-8F5B-51980BAD50AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{85442B22-79DE-4435-8FF3-A206A14FA3CD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="Status">'Agile Product Backlog'!#REF!</definedName>
     <definedName name="YesNo">'Agile Product Backlog'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="42">
   <si>
     <t>USER STORY</t>
   </si>
@@ -159,13 +159,19 @@
   </si>
   <si>
     <t xml:space="preserve">As a user I want to view the search results on a map, so that I can make a choice based on their location. </t>
+  </si>
+  <si>
+    <t>07/02/2020 - Incomplete</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -646,27 +652,27 @@
   </sheetPr>
   <dimension ref="B1:Y46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29:J39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="53.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.25" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="3" customWidth="1"/>
     <col min="11" max="16384" width="10.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="33.75" customHeight="1">
+    <row r="1" spans="2:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -692,7 +698,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="2:25" ht="34.9" customHeight="1">
+    <row r="2" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -736,14 +742,18 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="2:25" ht="29.25" customHeight="1">
+    <row r="3" spans="2:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="5">
+        <v>43857</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43861</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -764,7 +774,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -808,7 +818,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
@@ -854,7 +864,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -897,7 +907,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
@@ -941,7 +951,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
@@ -987,7 +997,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1031,7 +1041,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
@@ -1075,7 +1085,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
@@ -1119,7 +1129,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
@@ -1163,7 +1173,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
@@ -1207,7 +1217,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1251,7 +1261,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>33</v>
       </c>
@@ -1295,7 +1305,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
@@ -1339,14 +1349,18 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="5">
+        <v>43864</v>
+      </c>
+      <c r="F17" s="5">
+        <v>43864</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="4"/>
@@ -1367,7 +1381,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="18" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>33</v>
       </c>
@@ -1377,10 +1391,12 @@
       <c r="D18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="7">
-        <v>43833</v>
-      </c>
-      <c r="F18" s="7"/>
+      <c r="E18" s="5">
+        <v>43864</v>
+      </c>
+      <c r="F18" s="7">
+        <v>43868</v>
+      </c>
       <c r="G18" s="10">
         <v>8</v>
       </c>
@@ -1388,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J18" s="6">
         <v>4</v>
@@ -1409,7 +1425,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="19" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
@@ -1419,10 +1435,12 @@
       <c r="D19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="7">
-        <v>43833</v>
-      </c>
-      <c r="F19" s="7"/>
+      <c r="E19" s="5">
+        <v>43864</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G19" s="10">
         <v>4</v>
       </c>
@@ -1430,7 +1448,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J19" s="6">
         <v>0.5</v>
@@ -1451,7 +1469,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="20" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
@@ -1461,10 +1479,12 @@
       <c r="D20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="7">
-        <v>43833</v>
-      </c>
-      <c r="F20" s="7"/>
+      <c r="E20" s="5">
+        <v>43864</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G20" s="10">
         <v>8</v>
       </c>
@@ -1472,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J20" s="6">
         <v>2</v>
@@ -1493,7 +1513,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="21" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
@@ -1503,10 +1523,12 @@
       <c r="D21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="7">
-        <v>43833</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="E21" s="5">
+        <v>43864</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G21" s="10">
         <v>5</v>
       </c>
@@ -1514,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J21" s="6">
         <v>1.5</v>
@@ -1535,7 +1557,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="22" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
@@ -1545,10 +1567,12 @@
       <c r="D22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="7">
-        <v>43833</v>
-      </c>
-      <c r="F22" s="7"/>
+      <c r="E22" s="5">
+        <v>43864</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G22" s="10">
         <v>7</v>
       </c>
@@ -1556,7 +1580,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J22" s="6">
         <v>2</v>
@@ -1577,7 +1601,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="23" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
@@ -1587,10 +1611,12 @@
       <c r="D23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="7">
-        <v>43833</v>
-      </c>
-      <c r="F23" s="7"/>
+      <c r="E23" s="5">
+        <v>43864</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G23" s="10">
         <v>8</v>
       </c>
@@ -1598,7 +1624,7 @@
         <v>6</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J23" s="6">
         <v>1.5</v>
@@ -1619,7 +1645,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="24" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
         <v>38</v>
       </c>
@@ -1629,10 +1655,12 @@
       <c r="D24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="7">
-        <v>43833</v>
-      </c>
-      <c r="F24" s="7"/>
+      <c r="E24" s="5">
+        <v>43864</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G24" s="10">
         <v>4</v>
       </c>
@@ -1640,7 +1668,7 @@
         <v>6</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J24" s="6">
         <v>0.5</v>
@@ -1661,7 +1689,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="25" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -1671,10 +1699,12 @@
       <c r="D25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="7">
-        <v>43833</v>
-      </c>
-      <c r="F25" s="7"/>
+      <c r="E25" s="5">
+        <v>43864</v>
+      </c>
+      <c r="F25" s="7">
+        <v>43868</v>
+      </c>
       <c r="G25" s="10">
         <v>7</v>
       </c>
@@ -1682,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J25" s="6">
         <v>7</v>
@@ -1703,7 +1733,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="26" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
@@ -1713,10 +1743,12 @@
       <c r="D26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="7">
-        <v>43833</v>
-      </c>
-      <c r="F26" s="7"/>
+      <c r="E26" s="5">
+        <v>43864</v>
+      </c>
+      <c r="F26" s="7">
+        <v>43868</v>
+      </c>
       <c r="G26" s="10">
         <v>7</v>
       </c>
@@ -1724,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J26" s="6">
         <v>2</v>
@@ -1745,7 +1777,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="27" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>39</v>
       </c>
@@ -1755,10 +1787,12 @@
       <c r="D27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="7">
-        <v>43833</v>
-      </c>
-      <c r="F27" s="7"/>
+      <c r="E27" s="5">
+        <v>43864</v>
+      </c>
+      <c r="F27" s="7">
+        <v>43868</v>
+      </c>
       <c r="G27" s="10">
         <v>4</v>
       </c>
@@ -1766,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J27" s="6">
         <v>0.5</v>
@@ -1787,7 +1821,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="2:25" ht="39.950000000000003" customHeight="1">
+    <row r="28" spans="2:25" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
         <v>35</v>
       </c>
@@ -1797,10 +1831,12 @@
       <c r="D28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="7">
-        <v>43833</v>
-      </c>
-      <c r="F28" s="7"/>
+      <c r="E28" s="5">
+        <v>43864</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G28" s="10">
         <v>3</v>
       </c>
@@ -1808,7 +1844,7 @@
         <v>6</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J28" s="6">
         <v>0.5</v>
@@ -1829,10 +1865,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="2:25" ht="13.5"/>
-    <row r="30" spans="2:25" ht="13.5"/>
-    <row r="31" spans="2:25" ht="13.5"/>
-    <row r="32" spans="2:25" ht="13.5">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1858,8 +1891,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="2:25" ht="13.5"/>
-    <row r="34" spans="2:25" ht="13.5">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1885,7 +1917,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="2:25" ht="13.5">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1911,7 +1943,7 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="2:25" ht="13.5">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1937,7 +1969,7 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="2:25" ht="13.5">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1963,7 +1995,7 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="2:25" ht="13.5">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1989,7 +2021,7 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="2:25" ht="13.5">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2015,7 +2047,7 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="2:25">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2041,7 +2073,7 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="2:25">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2067,7 +2099,7 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="2:25">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2093,7 +2125,7 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="2:25">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2119,7 +2151,7 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="2:25">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2145,7 +2177,7 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="2:25">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2171,7 +2203,7 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="2:25">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2198,20 +2230,23 @@
       <c r="Y46" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C16 C27 C28 C18:C25 C26" xr:uid="{402A03B9-2466-4253-B41A-246C3120552D}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C16 C18:C28" xr:uid="{402A03B9-2466-4253-B41A-246C3120552D}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J27 H27 J28 H28 H3:H25 H26 J3:J25 J26" xr:uid="{09852914-F7DA-4B15-9E6D-D14755ECEDC4}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G27 G28 G3:G25 G26" xr:uid="{0DD51206-634B-4B3E-92B8-20C3A44ED692}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H28 J3:J28" xr:uid="{09852914-F7DA-4B15-9E6D-D14755ECEDC4}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G28" xr:uid="{0DD51206-634B-4B3E-92B8-20C3A44ED692}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27 D28 D3:D25 D26" xr:uid="{E9D868ED-FB63-4E0C-A049-DDE0867271FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D28" xr:uid="{E9D868ED-FB63-4E0C-A049-DDE0867271FF}">
       <formula1>"Oskar, Yousaf, Sarah, Gregor, Blazej, Roman"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I27 I28 I2:I25 I26" xr:uid="{F2CE05C7-0F05-4128-9E88-4C8B5566E9EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8 I25:I27" xr:uid="{F2CE05C7-0F05-4128-9E88-4C8B5566E9EE}">
       <formula1>"Not Started, In Progress, Complete"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I28 I9:I24" xr:uid="{BC22ED58-EFC4-459B-8BE4-8FB78DD1478A}">
+      <formula1>"Not Started, In Progress, Complete, Incomplete"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
